--- a/main/surveydata/backup/survey_result_student_each_backup.xlsx
+++ b/main/surveydata/backup/survey_result_student_each_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daeun\eduWeb\surveySite\main\surveydata\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A204B-6384-409D-A428-1F102B33F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C403A-47B1-470D-A1E0-4D4952E6E60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,10 +423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,46 +516,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
